--- a/DTcms.Web/admin/MaterialSetting/导入模板.xlsx
+++ b/DTcms.Web/admin/MaterialSetting/导入模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bluen\Source\Repos\XingGuang\DTcms.Web\admin\MaterialSetting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FEFCBE-752D-49B3-99BB-31E5E4800F82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6999BA7-057E-471F-A4B6-24A2CEBF6F4C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="8964" tabRatio="350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,9 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>

--- a/DTcms.Web/admin/MaterialSetting/导入模板.xlsx
+++ b/DTcms.Web/admin/MaterialSetting/导入模板.xlsx
@@ -5,22 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bluen\Source\Repos\XingGuang\DTcms.Web\admin\MaterialSetting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\星光\XingGuang\DTcms.Web\admin\MaterialSetting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6999BA7-057E-471F-A4B6-24A2CEBF6F4C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B96C40-AA8B-48F2-B7F4-65CCD61BE636}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="143" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>品牌logo</t>
   </si>
@@ -46,22 +46,10 @@
     <t>弱电布线费</t>
   </si>
   <si>
-    <t>器材安装费</t>
-  </si>
-  <si>
-    <t>系统调试费</t>
-  </si>
-  <si>
-    <t>项目管理费</t>
-  </si>
-  <si>
     <t>内部安装费用</t>
   </si>
   <si>
     <t>内部布线费用</t>
-  </si>
-  <si>
-    <t>产品图片</t>
   </si>
   <si>
     <t>金蝶物料编号</t>
@@ -81,11 +69,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>视频调试费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音频调试费</t>
+    <t>产品图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +88,15 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -145,11 +138,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -466,19 +462,19 @@
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" customWidth="1"/>
     <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.88671875" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" customWidth="1"/>
-    <col min="19" max="19" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -501,8 +497,8 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -517,25 +513,10 @@
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
